--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.641103231383877</v>
+        <v>13.641103235006108</v>
       </c>
       <c r="C2">
-        <v>15.159506130368916</v>
+        <v>15.159506126731619</v>
       </c>
       <c r="D2">
-        <v>14.167322937007979</v>
+        <v>14.167322927738567</v>
       </c>
       <c r="E2">
-        <v>16.338891377024083</v>
+        <v>16.338891373045755</v>
       </c>
       <c r="F2">
-        <v>10.676320447541338</v>
+        <v>10.676320444630887</v>
       </c>
       <c r="G2">
-        <v>13.038051155512607</v>
+        <v>13.038051153657076</v>
       </c>
       <c r="H2">
-        <v>10.623134612822085</v>
+        <v>10.623134609046568</v>
       </c>
       <c r="I2">
-        <v>11.763796472065769</v>
+        <v>11.76379647182732</v>
       </c>
       <c r="J2">
-        <v>15.63705128952509</v>
+        <v>15.63705128066999</v>
       </c>
       <c r="K2">
-        <v>12.141594729147076</v>
+        <v>12.141594727437118</v>
       </c>
       <c r="L2">
-        <v>11.381227434815926</v>
+        <v>11.381227431182946</v>
       </c>
       <c r="M2">
-        <v>13.592931907974043</v>
+        <v>13.592931908711225</v>
       </c>
       <c r="N2">
-        <v>12.594941418925664</v>
+        <v>12.594941416884581</v>
       </c>
       <c r="O2">
-        <v>11.644600962766246</v>
+        <v>11.644600955605554</v>
       </c>
       <c r="P2">
-        <v>13.189526159673198</v>
+        <v>13.189526162318149</v>
       </c>
       <c r="Q2">
-        <v>12.331643211976989</v>
+        <v>12.331643208357358</v>
       </c>
       <c r="R2">
-        <v>10.962460728511472</v>
+        <v>10.962460724116017</v>
       </c>
       <c r="S2">
-        <v>16.600418578404163</v>
+        <v>16.600418579152539</v>
       </c>
       <c r="T2">
-        <v>12.590270985569379</v>
+        <v>12.590270988025637</v>
       </c>
       <c r="U2">
-        <v>14.417874281228697</v>
+        <v>14.417874276052725</v>
       </c>
       <c r="V2">
-        <v>9.9821504070812939</v>
+        <v>9.9821504032339163</v>
       </c>
       <c r="W2">
-        <v>9.4202035211917217</v>
+        <v>9.420203512263301</v>
       </c>
       <c r="X2">
-        <v>13.836145654127977</v>
+        <v>13.836145648999953</v>
       </c>
       <c r="Y2">
-        <v>14.90697139281923</v>
+        <v>14.906971387115448</v>
       </c>
       <c r="Z2">
-        <v>14.186307402866833</v>
+        <v>14.186307399091216</v>
       </c>
       <c r="AA2">
-        <v>16.295391966279233</v>
+        <v>16.295391934941751</v>
       </c>
       <c r="AB2">
-        <v>17.619737918687019</v>
+        <v>17.619737907333395</v>
       </c>
       <c r="AC2">
-        <v>13.152216766512776</v>
+        <v>13.152216756716037</v>
       </c>
       <c r="AD2">
-        <v>17.995154019213057</v>
+        <v>17.995154005930818</v>
       </c>
       <c r="AE2">
-        <v>12.443964677281356</v>
+        <v>12.44396467593586</v>
       </c>
       <c r="AF2">
-        <v>13.528281016257129</v>
+        <v>13.528281009696382</v>
       </c>
       <c r="AG2">
-        <v>11.828408784684594</v>
+        <v>11.828408769455287</v>
       </c>
       <c r="AH2">
-        <v>12.303337384811016</v>
+        <v>12.303337379010976</v>
       </c>
       <c r="AI2">
-        <v>17.896826801482803</v>
+        <v>17.896826789096885</v>
       </c>
       <c r="AJ2">
-        <v>12.086097183501291</v>
+        <v>12.086097175687968</v>
       </c>
       <c r="AK2">
-        <v>12.775675894092059</v>
+        <v>12.77567588955649</v>
       </c>
       <c r="AL2">
-        <v>14.677821100236791</v>
+        <v>14.677821092868303</v>
       </c>
       <c r="AM2">
-        <v>12.868442025043523</v>
+        <v>12.868442019214903</v>
       </c>
       <c r="AN2">
-        <v>12.648640553895216</v>
+        <v>12.648640548210338</v>
       </c>
       <c r="AO2">
-        <v>14.862787984551765</v>
+        <v>14.862787971334349</v>
       </c>
       <c r="AP2">
-        <v>13.015463787841592</v>
+        <v>13.015463782074033</v>
       </c>
       <c r="AQ2">
-        <v>11.561932979674655</v>
+        <v>11.561932968142553</v>
       </c>
       <c r="AR2">
-        <v>16.812189083899352</v>
+        <v>16.812189082594379</v>
       </c>
       <c r="AS2">
-        <v>14.095184018959023</v>
+        <v>14.095184002721913</v>
       </c>
       <c r="AT2">
-        <v>16.563035063436875</v>
+        <v>16.563035056913154</v>
       </c>
       <c r="AU2">
-        <v>11.358724290447407</v>
+        <v>11.35872428944313</v>
       </c>
       <c r="AV2">
-        <v>12.21946185854191</v>
+        <v>12.219461836229151</v>
       </c>
       <c r="AW2">
-        <v>13.487100961440099</v>
+        <v>13.487100957381875</v>
       </c>
       <c r="AX2">
-        <v>17.055525245855669</v>
+        <v>17.055525236277418</v>
       </c>
       <c r="AY2">
-        <v>16.12312847025143</v>
+        <v>16.123128463230874</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.494067232926108</v>
+        <v>14.494067228589319</v>
       </c>
       <c r="C3">
-        <v>13.679473539363196</v>
+        <v>13.679473536250967</v>
       </c>
       <c r="D3">
-        <v>15.24999913728379</v>
+        <v>15.249999131039937</v>
       </c>
       <c r="E3">
-        <v>14.970255723554143</v>
+        <v>14.970255723616106</v>
       </c>
       <c r="F3">
-        <v>10.174203712876849</v>
+        <v>10.174203706654795</v>
       </c>
       <c r="G3">
-        <v>14.05889663386497</v>
+        <v>14.058896630124721</v>
       </c>
       <c r="H3">
-        <v>10.124788254434117</v>
+        <v>10.124788251417682</v>
       </c>
       <c r="I3">
-        <v>12.477842432627273</v>
+        <v>12.47784243051186</v>
       </c>
       <c r="J3">
-        <v>16.649126224040884</v>
+        <v>16.649126214506772</v>
       </c>
       <c r="K3">
-        <v>14.474484318096344</v>
+        <v>14.47448431339293</v>
       </c>
       <c r="L3">
-        <v>12.318162828831252</v>
+        <v>12.318162822870868</v>
       </c>
       <c r="M3">
-        <v>14.104886070592871</v>
+        <v>14.104885358226097</v>
       </c>
       <c r="N3">
-        <v>12.597343799552331</v>
+        <v>12.59734379604013</v>
       </c>
       <c r="O3">
-        <v>9.3996752860781712</v>
+        <v>9.3996752826881895</v>
       </c>
       <c r="P3">
-        <v>14.009134693671768</v>
+        <v>14.009134687245</v>
       </c>
       <c r="Q3">
-        <v>10.700053662554774</v>
+        <v>10.700053658614229</v>
       </c>
       <c r="R3">
-        <v>9.6581866867421393</v>
+        <v>9.6581866784859187</v>
       </c>
       <c r="S3">
-        <v>14.840548145625268</v>
+        <v>14.840548145053845</v>
       </c>
       <c r="T3">
-        <v>12.814587060516985</v>
+        <v>12.814587056774268</v>
       </c>
       <c r="U3">
-        <v>15.22222021976064</v>
+        <v>15.222220217447816</v>
       </c>
       <c r="V3">
-        <v>10.86926784221755</v>
+        <v>10.869267839830819</v>
       </c>
       <c r="W3">
-        <v>10.350224096282108</v>
+        <v>10.350224088781097</v>
       </c>
       <c r="X3">
-        <v>12.268142393666785</v>
+        <v>12.268142389595692</v>
       </c>
       <c r="Y3">
-        <v>17.101354840513551</v>
+        <v>17.101354832698377</v>
       </c>
       <c r="Z3">
-        <v>15.270451513611846</v>
+        <v>15.270451510097121</v>
       </c>
       <c r="AA3">
-        <v>16.035284222840851</v>
+        <v>16.035284227617087</v>
       </c>
       <c r="AB3">
-        <v>16.055471191078485</v>
+        <v>16.055471183236083</v>
       </c>
       <c r="AC3">
-        <v>15.841632895677357</v>
+        <v>15.841632894898883</v>
       </c>
       <c r="AD3">
-        <v>17.885917766876752</v>
+        <v>17.885917753339644</v>
       </c>
       <c r="AE3">
-        <v>12.922473997080466</v>
+        <v>12.922473992923097</v>
       </c>
       <c r="AF3">
-        <v>15.0140938740008</v>
+        <v>15.014093867082615</v>
       </c>
       <c r="AG3">
-        <v>12.242996153111234</v>
+        <v>12.242996152347015</v>
       </c>
       <c r="AH3">
-        <v>14.38443806142792</v>
+        <v>14.384438049565498</v>
       </c>
       <c r="AI3">
-        <v>21.64864931549911</v>
+        <v>21.64864930183856</v>
       </c>
       <c r="AJ3">
-        <v>14.231637827670093</v>
+        <v>14.231637821444684</v>
       </c>
       <c r="AK3">
-        <v>14.514123672697465</v>
+        <v>14.514123668622696</v>
       </c>
       <c r="AL3">
-        <v>14.40538431118158</v>
+        <v>14.405384306390653</v>
       </c>
       <c r="AM3">
-        <v>14.317480422943675</v>
+        <v>14.317480407274433</v>
       </c>
       <c r="AN3">
-        <v>11.23731210808887</v>
+        <v>11.237312098689943</v>
       </c>
       <c r="AO3">
-        <v>16.071580904367725</v>
+        <v>16.071580897499508</v>
       </c>
       <c r="AP3">
-        <v>11.124170381135974</v>
+        <v>11.124170372553435</v>
       </c>
       <c r="AQ3">
-        <v>10.768528355368048</v>
+        <v>10.768528349330184</v>
       </c>
       <c r="AR3">
-        <v>17.237346648730465</v>
+        <v>17.23734664730361</v>
       </c>
       <c r="AS3">
-        <v>12.640379524865292</v>
+        <v>12.640379510931524</v>
       </c>
       <c r="AT3">
-        <v>15.953441429994195</v>
+        <v>15.953441416296588</v>
       </c>
       <c r="AU3">
-        <v>11.039839776306003</v>
+        <v>11.039839768337607</v>
       </c>
       <c r="AV3">
-        <v>11.26013984513726</v>
+        <v>11.260139825513733</v>
       </c>
       <c r="AW3">
-        <v>14.194810584644573</v>
+        <v>14.194810568870256</v>
       </c>
       <c r="AX3">
-        <v>15.035349648215183</v>
+        <v>15.035349636164502</v>
       </c>
       <c r="AY3">
-        <v>17.754701382841333</v>
+        <v>17.754701380481837</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.641103235006108</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>15.159506126731619</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>14.167322927738567</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>16.338891373045755</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.676320444630887</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13.038051153657076</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.623134609046568</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.76379647182732</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.63705128066999</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.141594727437118</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.381227431182946</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.592931908711225</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.594941416884581</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.644600955605554</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.189526162318149</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.331643208357358</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>10.962460724116017</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.600418579152539</v>
+        <v>15.042288847474694</v>
       </c>
       <c r="T2">
         <v>12.590270988025637</v>
@@ -588,55 +477,55 @@
         <v>14.186307399091216</v>
       </c>
       <c r="AA2">
-        <v>16.295391934941751</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>17.619737907333395</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>13.152216756716037</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>17.995154005930818</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.44396467593586</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.528281009696382</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.828408769455287</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>12.303337379010976</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.896826789096885</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>12.086097175687968</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>12.77567588955649</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.677821092868303</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.868442019214903</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.648640548210338</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.862787971334349</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>13.015463782074033</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.561932968142553</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.812189082594379</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>14.494067228589319</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>13.679473536250967</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.249999131039937</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.970255723616106</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.174203706654795</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>14.058896630124721</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.124788251417682</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.47784243051186</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>16.649126214506772</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.47448431339293</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.318162822870868</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.104885358226097</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.59734379604013</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.3996752826881895</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.009134687245</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.700053658614229</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.6581866784859187</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.840548145053845</v>
@@ -743,55 +629,55 @@
         <v>15.270451510097121</v>
       </c>
       <c r="AA3">
-        <v>16.035284227617087</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>16.055471183236083</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.841632894898883</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>17.885917753339644</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.922473992923097</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.014093867082615</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.242996152347015</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>14.384438049565498</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>21.64864930183856</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>14.231637821444684</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>14.514123668622696</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>14.405384306390653</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14.317480407274433</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>11.237312098689943</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>16.071580897499508</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.124170372553435</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.768528349330184</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.23734664730361</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.641103231383877</v>
+        <v>11.644600955605554</v>
       </c>
       <c r="C2">
-        <v>14.6022116917751</v>
+        <v>10.962460724116017</v>
       </c>
       <c r="D2">
-        <v>14.167322937007979</v>
+        <v>12.648640548210338</v>
       </c>
       <c r="E2">
-        <v>16.338891377024083</v>
+        <v>11.561932968142553</v>
       </c>
       <c r="F2">
         <v>10.676320447541338</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.494067232926108</v>
+        <v>10.669031043082921</v>
       </c>
       <c r="C3">
-        <v>13.679473539363196</v>
+        <v>9.6581866784859187</v>
       </c>
       <c r="D3">
-        <v>15.24999913728379</v>
+        <v>11.513577455305288</v>
       </c>
       <c r="E3">
-        <v>14.970255723554143</v>
+        <v>10.995500702956363</v>
       </c>
       <c r="F3">
         <v>10.174203712876849</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.641103231383877</v>
+        <v>12.416459387778305</v>
       </c>
       <c r="C2">
-        <v>14.6022116917751</v>
+        <v>11.644600955605554</v>
       </c>
       <c r="D2">
-        <v>14.167322937007979</v>
+        <v>12.868442019214903</v>
       </c>
       <c r="E2">
-        <v>16.338891377024083</v>
+        <v>12.648640548210338</v>
       </c>
       <c r="F2">
         <v>10.676320447541338</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14.494067232926108</v>
+        <v>12.59734379604013</v>
       </c>
       <c r="C3">
-        <v>13.679473539363196</v>
+        <v>10.669031043082921</v>
       </c>
       <c r="D3">
-        <v>15.24999913728379</v>
+        <v>14.317480407274433</v>
       </c>
       <c r="E3">
-        <v>16.275180442229953</v>
+        <v>11.513577455305288</v>
       </c>
       <c r="F3">
         <v>10.174203712876849</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.641103235006108</v>
+      </c>
+      <c r="C2">
+        <v>14.60221168838742</v>
+      </c>
+      <c r="D2">
+        <v>14.167322927738567</v>
+      </c>
+      <c r="E2">
+        <v>16.338891373045755</v>
+      </c>
+      <c r="F2">
+        <v>10.676320444630887</v>
+      </c>
+      <c r="G2">
+        <v>13.872611025392514</v>
+      </c>
+      <c r="H2">
+        <v>10.623134609046568</v>
+      </c>
+      <c r="I2">
+        <v>12.556863231133066</v>
+      </c>
+      <c r="J2">
+        <v>15.63705128066999</v>
+      </c>
+      <c r="K2">
+        <v>12.141594727437118</v>
+      </c>
+      <c r="L2">
+        <v>11.614242370279412</v>
+      </c>
+      <c r="M2">
+        <v>14.945614830488818</v>
+      </c>
+      <c r="N2">
         <v>12.416459387778305</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.644600955605554</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.499262325992225</v>
+      </c>
+      <c r="Q2">
+        <v>12.331643208357358</v>
+      </c>
+      <c r="R2">
+        <v>10.962460724116017</v>
+      </c>
+      <c r="T2">
+        <v>11.966711713115135</v>
+      </c>
+      <c r="U2">
+        <v>14.417874276052725</v>
+      </c>
+      <c r="V2">
+        <v>10.566826975425043</v>
+      </c>
+      <c r="W2">
+        <v>9.420203512263301</v>
+      </c>
+      <c r="X2">
+        <v>13.836145648999953</v>
+      </c>
+      <c r="Y2">
+        <v>14.906971387115448</v>
+      </c>
+      <c r="Z2">
+        <v>14.186307399091216</v>
+      </c>
+      <c r="AA2">
+        <v>16.295391934941751</v>
+      </c>
+      <c r="AB2">
+        <v>17.619737907333395</v>
+      </c>
+      <c r="AC2">
+        <v>13.152216756716037</v>
+      </c>
+      <c r="AD2">
+        <v>17.995154005930818</v>
+      </c>
+      <c r="AE2">
+        <v>12.44396467593586</v>
+      </c>
+      <c r="AF2">
+        <v>13.528281009696382</v>
+      </c>
+      <c r="AG2">
+        <v>11.828408769455287</v>
+      </c>
+      <c r="AH2">
+        <v>12.303337379010976</v>
+      </c>
+      <c r="AI2">
+        <v>17.896826789096885</v>
+      </c>
+      <c r="AJ2">
+        <v>12.086097175687968</v>
+      </c>
+      <c r="AK2">
+        <v>12.77567588955649</v>
+      </c>
+      <c r="AL2">
+        <v>14.677821092868303</v>
+      </c>
+      <c r="AM2">
         <v>12.868442019214903</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.648640548210338</v>
       </c>
-      <c r="F2">
-        <v>10.676320447541338</v>
-      </c>
-      <c r="G2">
-        <v>13.872611025575951</v>
-      </c>
-      <c r="H2">
-        <v>10.623134612822085</v>
-      </c>
-      <c r="I2">
-        <v>12.556863228878024</v>
-      </c>
-      <c r="J2">
-        <v>15.63705128952509</v>
-      </c>
-      <c r="K2">
-        <v>12.141594729147076</v>
-      </c>
-      <c r="L2">
-        <v>11.614242376515236</v>
-      </c>
-      <c r="M2">
-        <v>14.945614828887752</v>
-      </c>
-      <c r="N2">
-        <v>12.416459391699595</v>
-      </c>
-      <c r="O2">
-        <v>11.644600962766246</v>
-      </c>
-      <c r="P2">
-        <v>13.499262325266509</v>
-      </c>
-      <c r="Q2">
-        <v>12.331643211976989</v>
-      </c>
-      <c r="R2">
-        <v>10.962460728511472</v>
-      </c>
-      <c r="T2">
-        <v>11.966711711836334</v>
-      </c>
-      <c r="U2">
-        <v>14.417874281228697</v>
-      </c>
-      <c r="V2">
-        <v>10.566826981469887</v>
-      </c>
-      <c r="W2">
-        <v>9.4202035211917217</v>
-      </c>
-      <c r="X2">
-        <v>13.836145654127977</v>
-      </c>
-      <c r="Y2">
-        <v>14.90697139281923</v>
-      </c>
-      <c r="Z2">
-        <v>14.186307402866833</v>
-      </c>
-      <c r="AA2">
-        <v>16.295391966279233</v>
-      </c>
-      <c r="AB2">
-        <v>17.619737918687019</v>
-      </c>
-      <c r="AC2">
-        <v>13.152216766512776</v>
-      </c>
-      <c r="AD2">
-        <v>17.995154019213057</v>
-      </c>
-      <c r="AE2">
-        <v>12.443964677281356</v>
-      </c>
-      <c r="AF2">
-        <v>13.528281016257129</v>
-      </c>
-      <c r="AG2">
-        <v>11.828408784684594</v>
-      </c>
-      <c r="AH2">
-        <v>12.303337384811016</v>
-      </c>
-      <c r="AI2">
-        <v>17.896826801482803</v>
-      </c>
-      <c r="AJ2">
-        <v>12.086097183501291</v>
-      </c>
-      <c r="AK2">
-        <v>12.775675894092059</v>
-      </c>
-      <c r="AL2">
-        <v>14.677821100236791</v>
-      </c>
-      <c r="AM2">
-        <v>12.868442025043523</v>
-      </c>
-      <c r="AN2">
-        <v>12.648640553895216</v>
-      </c>
       <c r="AO2">
-        <v>14.862787984551765</v>
+        <v>14.862787971334349</v>
       </c>
       <c r="AP2">
-        <v>13.41696796577819</v>
+        <v>13.416967961036551</v>
       </c>
       <c r="AQ2">
-        <v>11.561932979674655</v>
+        <v>11.561932968142553</v>
       </c>
       <c r="AR2">
-        <v>16.812189083899352</v>
+        <v>16.812189082594379</v>
       </c>
       <c r="AS2">
-        <v>14.095184018959023</v>
+        <v>14.095184002721913</v>
       </c>
       <c r="AT2">
-        <v>16.563035063436875</v>
+        <v>16.563035056913154</v>
       </c>
       <c r="AU2">
-        <v>10.228253448887259</v>
+        <v>10.228253450653101</v>
       </c>
       <c r="AV2">
-        <v>12.21946185854191</v>
+        <v>12.219461836229151</v>
       </c>
       <c r="AW2">
-        <v>13.487100961440099</v>
+        <v>13.487100957381875</v>
       </c>
       <c r="AX2">
-        <v>17.055525245855669</v>
+        <v>17.055525236277418</v>
       </c>
       <c r="AY2">
-        <v>16.12312847025143</v>
+        <v>16.123128463230874</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>14.494067228589319</v>
+      </c>
+      <c r="C3">
+        <v>13.679473536250967</v>
+      </c>
+      <c r="D3">
+        <v>15.249999131039937</v>
+      </c>
+      <c r="E3">
+        <v>16.275180442352603</v>
+      </c>
+      <c r="F3">
+        <v>10.174203706654795</v>
+      </c>
+      <c r="G3">
+        <v>14.058896630124721</v>
+      </c>
+      <c r="H3">
+        <v>10.124788251417682</v>
+      </c>
+      <c r="I3">
+        <v>12.47784243051186</v>
+      </c>
+      <c r="J3">
+        <v>16.649126214506772</v>
+      </c>
+      <c r="K3">
+        <v>14.214597618249689</v>
+      </c>
+      <c r="L3">
+        <v>12.318162822870868</v>
+      </c>
+      <c r="M3">
+        <v>13.267930646672793</v>
+      </c>
+      <c r="N3">
         <v>12.59734379604013</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.669031043082921</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>14.009134687245</v>
+      </c>
+      <c r="Q3">
+        <v>10.700053658614229</v>
+      </c>
+      <c r="R3">
+        <v>9.6581866784859187</v>
+      </c>
+      <c r="S3">
+        <v>14.840548145053845</v>
+      </c>
+      <c r="T3">
+        <v>12.814587056774268</v>
+      </c>
+      <c r="U3">
+        <v>15.222220217447816</v>
+      </c>
+      <c r="V3">
+        <v>11.20553425138443</v>
+      </c>
+      <c r="W3">
+        <v>10.350224088781097</v>
+      </c>
+      <c r="X3">
+        <v>12.268142389595692</v>
+      </c>
+      <c r="Y3">
+        <v>17.101354832698377</v>
+      </c>
+      <c r="Z3">
+        <v>15.270451510097121</v>
+      </c>
+      <c r="AA3">
+        <v>16.035284227617087</v>
+      </c>
+      <c r="AB3">
+        <v>16.055471183236083</v>
+      </c>
+      <c r="AC3">
+        <v>15.841632894898883</v>
+      </c>
+      <c r="AD3">
+        <v>17.885917753339644</v>
+      </c>
+      <c r="AE3">
+        <v>12.922473992923097</v>
+      </c>
+      <c r="AF3">
+        <v>15.014093867082615</v>
+      </c>
+      <c r="AG3">
+        <v>12.242996152347015</v>
+      </c>
+      <c r="AH3">
+        <v>14.384438049565498</v>
+      </c>
+      <c r="AI3">
+        <v>16.727892392845899</v>
+      </c>
+      <c r="AJ3">
+        <v>14.231637821444684</v>
+      </c>
+      <c r="AK3">
+        <v>14.514123668622696</v>
+      </c>
+      <c r="AL3">
+        <v>14.405384306390653</v>
+      </c>
+      <c r="AM3">
         <v>14.317480407274433</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>11.513577455305288</v>
       </c>
-      <c r="F3">
-        <v>10.174203712876849</v>
-      </c>
-      <c r="G3">
-        <v>14.05889663386497</v>
-      </c>
-      <c r="H3">
-        <v>10.124788254434117</v>
-      </c>
-      <c r="I3">
-        <v>12.477842432627273</v>
-      </c>
-      <c r="J3">
-        <v>16.649126224040884</v>
-      </c>
-      <c r="K3">
-        <v>14.214597624387478</v>
-      </c>
-      <c r="L3">
-        <v>12.318162828831252</v>
-      </c>
-      <c r="M3">
-        <v>13.267937189937262</v>
-      </c>
-      <c r="N3">
-        <v>12.597343799552331</v>
-      </c>
-      <c r="O3">
-        <v>10.669031049245776</v>
-      </c>
-      <c r="P3">
-        <v>14.009134693671768</v>
-      </c>
-      <c r="Q3">
-        <v>10.700053662554774</v>
-      </c>
-      <c r="R3">
-        <v>9.6581866867421393</v>
-      </c>
-      <c r="S3">
-        <v>14.840548145625268</v>
-      </c>
-      <c r="T3">
-        <v>12.814587060516985</v>
-      </c>
-      <c r="U3">
-        <v>15.22222021976064</v>
-      </c>
-      <c r="V3">
-        <v>11.205534252632525</v>
-      </c>
-      <c r="W3">
-        <v>10.350224096282108</v>
-      </c>
-      <c r="X3">
-        <v>12.268142393666785</v>
-      </c>
-      <c r="Y3">
-        <v>17.101354840513551</v>
-      </c>
-      <c r="Z3">
-        <v>15.270451513611846</v>
-      </c>
-      <c r="AA3">
-        <v>16.035284222840851</v>
-      </c>
-      <c r="AB3">
-        <v>16.055471191078485</v>
-      </c>
-      <c r="AC3">
-        <v>15.841632895677357</v>
-      </c>
-      <c r="AD3">
-        <v>17.885917766876752</v>
-      </c>
-      <c r="AE3">
-        <v>12.922473997080466</v>
-      </c>
-      <c r="AF3">
-        <v>15.0140938740008</v>
-      </c>
-      <c r="AG3">
-        <v>12.242996153111234</v>
-      </c>
-      <c r="AH3">
-        <v>14.38443806142792</v>
-      </c>
-      <c r="AI3">
-        <v>16.727892408503269</v>
-      </c>
-      <c r="AJ3">
-        <v>14.231637827670093</v>
-      </c>
-      <c r="AK3">
-        <v>14.514123672697465</v>
-      </c>
-      <c r="AL3">
-        <v>14.40538431118158</v>
-      </c>
-      <c r="AM3">
-        <v>14.317480422943675</v>
-      </c>
-      <c r="AN3">
-        <v>11.513577466683191</v>
-      </c>
       <c r="AO3">
-        <v>16.071580904367725</v>
+        <v>16.071580897499508</v>
       </c>
       <c r="AP3">
-        <v>11.124170381135974</v>
+        <v>11.124170372553435</v>
       </c>
       <c r="AQ3">
-        <v>10.995500704581174</v>
+        <v>10.995500702956363</v>
       </c>
       <c r="AR3">
-        <v>17.237346648730465</v>
+        <v>17.23734664730361</v>
       </c>
       <c r="AS3">
-        <v>12.640379524865292</v>
+        <v>12.640379510931524</v>
       </c>
       <c r="AT3">
-        <v>15.953441429994195</v>
+        <v>15.953441416296588</v>
       </c>
       <c r="AU3">
-        <v>11.323472785841965</v>
+        <v>11.323472783415699</v>
       </c>
       <c r="AV3">
-        <v>11.26013984513726</v>
+        <v>11.260139825513733</v>
       </c>
       <c r="AW3">
-        <v>14.194810584644573</v>
+        <v>14.194810568870256</v>
       </c>
       <c r="AX3">
-        <v>15.035349648215183</v>
+        <v>15.035349636164502</v>
       </c>
       <c r="AY3">
-        <v>17.754701382841333</v>
+        <v>17.754701380481837</v>
       </c>
     </row>
   </sheetData>
